--- a/database/industries/darou/detmad/income/quarterly/rial.xlsx
+++ b/database/industries/darou/detmad/income/quarterly/rial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\detmad\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AE0B4E-6756-461C-83FD-7A560FCA2B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5819A7-1112-42A9-AD7C-A2DCFA3B5303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دتماد-تولیدمواداولیه‌داروپخش‌</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,37 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-04-29 (2)</t>
-  </si>
-  <si>
-    <t>1400-09-01 (4)</t>
-  </si>
-  <si>
-    <t>1400-11-16 (4)</t>
-  </si>
-  <si>
-    <t>1401-03-24 (10)</t>
-  </si>
-  <si>
-    <t>1401-04-30 (2)</t>
-  </si>
-  <si>
-    <t>1401-07-30 (3)</t>
-  </si>
-  <si>
-    <t>1400-11-16 (2)</t>
-  </si>
-  <si>
-    <t>1401-07-30 (4)</t>
+    <t>1401-11-01 (4)</t>
+  </si>
+  <si>
+    <t>1401-11-01 (7)</t>
   </si>
   <si>
     <t>1401-04-30</t>
   </si>
   <si>
-    <t>1401-07-30</t>
+    <t>1401-08-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-11-01 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -615,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,14 +593,12 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -638,13 +606,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -654,13 +617,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -670,13 +628,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -684,13 +637,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -700,13 +648,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -716,13 +659,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -730,13 +668,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -756,59 +689,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -816,159 +719,94 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>1233054</v>
+        <v>1980421</v>
       </c>
       <c r="E11" s="13">
-        <v>2006503</v>
+        <v>2366335</v>
       </c>
       <c r="F11" s="13">
-        <v>2609518</v>
+        <v>2500879</v>
       </c>
       <c r="G11" s="13">
-        <v>1441386</v>
+        <v>3446475</v>
       </c>
       <c r="H11" s="13">
-        <v>2361164</v>
-      </c>
-      <c r="I11" s="13">
-        <v>2859006</v>
-      </c>
-      <c r="J11" s="13">
-        <v>1980421</v>
-      </c>
-      <c r="K11" s="13">
-        <v>2366335</v>
-      </c>
-      <c r="L11" s="13">
-        <v>2500879</v>
-      </c>
-      <c r="M11" s="13">
-        <v>3446475</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+        <v>2571565</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-516409</v>
+        <v>-1039609</v>
       </c>
       <c r="E12" s="11">
-        <v>-936586</v>
+        <v>-1257046</v>
       </c>
       <c r="F12" s="11">
-        <v>-1021110</v>
+        <v>-1173156</v>
       </c>
       <c r="G12" s="11">
-        <v>-763508</v>
+        <v>-1812814</v>
       </c>
       <c r="H12" s="11">
-        <v>-1027963</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-1084750</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-1039609</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-1257046</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-1173156</v>
-      </c>
-      <c r="M12" s="11">
-        <v>-1790271</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-1350950</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>716645</v>
+        <v>940812</v>
       </c>
       <c r="E13" s="15">
-        <v>1069917</v>
+        <v>1109289</v>
       </c>
       <c r="F13" s="15">
-        <v>1588408</v>
+        <v>1327723</v>
       </c>
       <c r="G13" s="15">
-        <v>677878</v>
+        <v>1633661</v>
       </c>
       <c r="H13" s="15">
-        <v>1333201</v>
-      </c>
-      <c r="I13" s="15">
-        <v>1774256</v>
-      </c>
-      <c r="J13" s="15">
-        <v>940812</v>
-      </c>
-      <c r="K13" s="15">
-        <v>1109289</v>
-      </c>
-      <c r="L13" s="15">
-        <v>1327723</v>
-      </c>
-      <c r="M13" s="15">
-        <v>1656204</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1220615</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-50035</v>
+        <v>-100987</v>
       </c>
       <c r="E14" s="11">
-        <v>-108852</v>
+        <v>-137449</v>
       </c>
       <c r="F14" s="11">
-        <v>-65973</v>
+        <v>-125702</v>
       </c>
       <c r="G14" s="11">
-        <v>-109312</v>
+        <v>-96458</v>
       </c>
       <c r="H14" s="11">
-        <v>-105227</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-112573</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-100987</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-137449</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-125702</v>
-      </c>
-      <c r="M14" s="11">
-        <v>-132465</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-195361</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -986,277 +824,157 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>6700</v>
+        <v>41800</v>
       </c>
       <c r="E16" s="11">
-        <v>76509</v>
+        <v>-74787</v>
       </c>
       <c r="F16" s="11">
-        <v>-48662</v>
+        <v>1290</v>
       </c>
       <c r="G16" s="11">
-        <v>100337</v>
+        <v>38797</v>
       </c>
       <c r="H16" s="11">
-        <v>11227</v>
-      </c>
-      <c r="I16" s="11">
-        <v>86088</v>
-      </c>
-      <c r="J16" s="11">
-        <v>9713</v>
-      </c>
-      <c r="K16" s="11">
-        <v>-52826</v>
-      </c>
-      <c r="L16" s="11">
-        <v>1290</v>
-      </c>
-      <c r="M16" s="11">
-        <v>43037</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>17922</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>673310</v>
+        <v>881625</v>
       </c>
       <c r="E17" s="15">
-        <v>1037574</v>
+        <v>897053</v>
       </c>
       <c r="F17" s="15">
-        <v>1473773</v>
+        <v>1203311</v>
       </c>
       <c r="G17" s="15">
-        <v>668903</v>
+        <v>1576000</v>
       </c>
       <c r="H17" s="15">
-        <v>1239201</v>
-      </c>
-      <c r="I17" s="15">
-        <v>1747771</v>
-      </c>
-      <c r="J17" s="15">
-        <v>849538</v>
-      </c>
-      <c r="K17" s="15">
-        <v>919014</v>
-      </c>
-      <c r="L17" s="15">
-        <v>1203311</v>
-      </c>
-      <c r="M17" s="15">
-        <v>1566776</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1043176</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-23239</v>
+        <v>-36074</v>
       </c>
       <c r="E18" s="11">
-        <v>-21289</v>
+        <v>-69950</v>
       </c>
       <c r="F18" s="11">
-        <v>-15048</v>
+        <v>-87980</v>
       </c>
       <c r="G18" s="11">
-        <v>-11126</v>
+        <v>-110426</v>
       </c>
       <c r="H18" s="11">
-        <v>-18263</v>
-      </c>
-      <c r="I18" s="11">
-        <v>-22119</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-36074</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-69950</v>
-      </c>
-      <c r="L18" s="11">
-        <v>-87980</v>
-      </c>
-      <c r="M18" s="11">
-        <v>-110426</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-123750</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>1170</v>
+        <v>-12328</v>
       </c>
       <c r="E19" s="13">
-        <v>427</v>
+        <v>68404</v>
       </c>
       <c r="F19" s="13">
-        <v>4563</v>
+        <v>207</v>
       </c>
       <c r="G19" s="13">
-        <v>45716</v>
+        <v>11884</v>
       </c>
       <c r="H19" s="13">
-        <v>8230</v>
-      </c>
-      <c r="I19" s="13">
-        <v>-15314</v>
-      </c>
-      <c r="J19" s="13">
-        <v>19759</v>
-      </c>
-      <c r="K19" s="13">
-        <v>46443</v>
-      </c>
-      <c r="L19" s="13">
-        <v>207</v>
-      </c>
-      <c r="M19" s="13">
-        <v>2384</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>49958</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>651241</v>
+        <v>833223</v>
       </c>
       <c r="E20" s="17">
-        <v>1016712</v>
+        <v>895507</v>
       </c>
       <c r="F20" s="17">
-        <v>1463288</v>
+        <v>1115538</v>
       </c>
       <c r="G20" s="17">
-        <v>703493</v>
+        <v>1477458</v>
       </c>
       <c r="H20" s="17">
-        <v>1229168</v>
-      </c>
-      <c r="I20" s="17">
-        <v>1710338</v>
-      </c>
-      <c r="J20" s="17">
-        <v>833223</v>
-      </c>
-      <c r="K20" s="17">
-        <v>895507</v>
-      </c>
-      <c r="L20" s="17">
-        <v>1115538</v>
-      </c>
-      <c r="M20" s="17">
-        <v>1458734</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>969384</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-96566</v>
+        <v>-111865</v>
       </c>
       <c r="E21" s="13">
-        <v>-71642</v>
+        <v>24572</v>
       </c>
       <c r="F21" s="13">
-        <v>-262957</v>
+        <v>-104270</v>
       </c>
       <c r="G21" s="13">
-        <v>189738</v>
+        <v>-283791</v>
       </c>
       <c r="H21" s="13">
-        <v>-210282</v>
-      </c>
-      <c r="I21" s="13">
-        <v>-278509</v>
-      </c>
-      <c r="J21" s="13">
-        <v>-111866</v>
-      </c>
-      <c r="K21" s="13">
-        <v>24572</v>
-      </c>
-      <c r="L21" s="13">
-        <v>-104270</v>
-      </c>
-      <c r="M21" s="13">
-        <v>-220636</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-210098</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>554675</v>
+        <v>721358</v>
       </c>
       <c r="E22" s="17">
-        <v>945070</v>
+        <v>920079</v>
       </c>
       <c r="F22" s="17">
-        <v>1200331</v>
+        <v>1011268</v>
       </c>
       <c r="G22" s="17">
-        <v>893231</v>
+        <v>1193667</v>
       </c>
       <c r="H22" s="17">
-        <v>1018886</v>
-      </c>
-      <c r="I22" s="17">
-        <v>1431829</v>
-      </c>
-      <c r="J22" s="17">
-        <v>721357</v>
-      </c>
-      <c r="K22" s="17">
-        <v>920079</v>
-      </c>
-      <c r="L22" s="17">
-        <v>1011268</v>
-      </c>
-      <c r="M22" s="17">
-        <v>1238098</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>759286</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1274,97 +992,52 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>554675</v>
+        <v>721358</v>
       </c>
       <c r="E24" s="17">
-        <v>945070</v>
+        <v>920079</v>
       </c>
       <c r="F24" s="17">
-        <v>1200331</v>
+        <v>1011268</v>
       </c>
       <c r="G24" s="17">
-        <v>893231</v>
+        <v>1193667</v>
       </c>
       <c r="H24" s="17">
-        <v>1018886</v>
-      </c>
-      <c r="I24" s="17">
-        <v>1431829</v>
-      </c>
-      <c r="J24" s="17">
-        <v>721357</v>
-      </c>
-      <c r="K24" s="17">
-        <v>920079</v>
-      </c>
-      <c r="L24" s="17">
-        <v>1011268</v>
-      </c>
-      <c r="M24" s="17">
-        <v>1238098</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>759286</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>776</v>
+        <v>1009</v>
       </c>
       <c r="E25" s="13">
-        <v>1322</v>
+        <v>1287</v>
       </c>
       <c r="F25" s="13">
-        <v>1679</v>
+        <v>1414</v>
       </c>
       <c r="G25" s="13">
-        <v>1249</v>
+        <v>1669</v>
       </c>
       <c r="H25" s="13">
-        <v>1425</v>
-      </c>
-      <c r="I25" s="13">
-        <v>2003</v>
-      </c>
-      <c r="J25" s="13">
-        <v>1009</v>
-      </c>
-      <c r="K25" s="13">
-        <v>1287</v>
-      </c>
-      <c r="L25" s="13">
-        <v>1414</v>
-      </c>
-      <c r="M25" s="13">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1382,59 +1055,29 @@
       <c r="H26" s="11">
         <v>715000</v>
       </c>
-      <c r="I26" s="11">
-        <v>715000</v>
-      </c>
-      <c r="J26" s="11">
-        <v>715000</v>
-      </c>
-      <c r="K26" s="11">
-        <v>715000</v>
-      </c>
-      <c r="L26" s="11">
-        <v>715000</v>
-      </c>
-      <c r="M26" s="11">
-        <v>715000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>776</v>
+        <v>1009</v>
       </c>
       <c r="E27" s="13">
-        <v>1322</v>
+        <v>1287</v>
       </c>
       <c r="F27" s="13">
-        <v>1679</v>
+        <v>1414</v>
       </c>
       <c r="G27" s="13">
-        <v>1249</v>
+        <v>1669</v>
       </c>
       <c r="H27" s="13">
-        <v>1425</v>
-      </c>
-      <c r="I27" s="13">
-        <v>2003</v>
-      </c>
-      <c r="J27" s="13">
-        <v>1009</v>
-      </c>
-      <c r="K27" s="13">
-        <v>1287</v>
-      </c>
-      <c r="L27" s="13">
-        <v>1414</v>
-      </c>
-      <c r="M27" s="13">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1442,11 +1085,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/darou/detmad/income/quarterly/rial.xlsx
+++ b/database/industries/darou/detmad/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\detmad\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\detmad\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5819A7-1112-42A9-AD7C-A2DCFA3B5303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C68C89B-5AB0-4169-BE23-A029453379A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-09-01 (4)</t>
+  </si>
+  <si>
+    <t>1400-11-16 (4)</t>
+  </si>
+  <si>
+    <t>1401-03-24 (10)</t>
+  </si>
+  <si>
+    <t>1401-04-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-08-30 (4)</t>
   </si>
   <si>
     <t>1401-11-01 (4)</t>
@@ -585,20 +615,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -606,8 +638,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,8 +654,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,8 +670,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -637,8 +684,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -648,8 +700,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +716,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,8 +730,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -689,29 +756,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -719,94 +816,159 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>2006503</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2609518</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1441386</v>
+      </c>
+      <c r="G11" s="13">
+        <v>2361164</v>
+      </c>
+      <c r="H11" s="13">
+        <v>2859006</v>
+      </c>
+      <c r="I11" s="13">
         <v>1980421</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>2366335</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>2500879</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>3446475</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>2571565</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-936586</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-1021110</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-763508</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-1027963</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-1084750</v>
+      </c>
+      <c r="I12" s="11">
         <v>-1039609</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-1257046</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-1173156</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-1812814</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-1350950</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>1069917</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1588408</v>
+      </c>
+      <c r="F13" s="15">
+        <v>677878</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1333201</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1774256</v>
+      </c>
+      <c r="I13" s="15">
         <v>940812</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>1109289</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>1327723</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>1633661</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>1220615</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-108852</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-65973</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-109312</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-105227</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-112573</v>
+      </c>
+      <c r="I14" s="11">
         <v>-100987</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-137449</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-125702</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-96458</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-195361</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -824,157 +986,277 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>76509</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-48662</v>
+      </c>
+      <c r="F16" s="11">
+        <v>100337</v>
+      </c>
+      <c r="G16" s="11">
+        <v>11227</v>
+      </c>
+      <c r="H16" s="11">
+        <v>54001</v>
+      </c>
+      <c r="I16" s="11">
         <v>41800</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>-74787</v>
       </c>
-      <c r="F16" s="11">
+      <c r="K16" s="11">
         <v>1290</v>
       </c>
-      <c r="G16" s="11">
+      <c r="L16" s="11">
         <v>38797</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>17922</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>1037574</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1473773</v>
+      </c>
+      <c r="F17" s="15">
+        <v>668903</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1239201</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1715684</v>
+      </c>
+      <c r="I17" s="15">
         <v>881625</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>897053</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>1203311</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>1576000</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>1043176</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-21289</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-15048</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-11126</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-18263</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-22119</v>
+      </c>
+      <c r="I18" s="11">
         <v>-36074</v>
       </c>
-      <c r="E18" s="11">
+      <c r="J18" s="11">
         <v>-69950</v>
       </c>
-      <c r="F18" s="11">
+      <c r="K18" s="11">
         <v>-87980</v>
       </c>
-      <c r="G18" s="11">
+      <c r="L18" s="11">
         <v>-110426</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>-123750</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>427</v>
+      </c>
+      <c r="E19" s="13">
+        <v>4563</v>
+      </c>
+      <c r="F19" s="13">
+        <v>45716</v>
+      </c>
+      <c r="G19" s="13">
+        <v>8230</v>
+      </c>
+      <c r="H19" s="13">
+        <v>16773</v>
+      </c>
+      <c r="I19" s="13">
         <v>-12328</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>68404</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>207</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>11884</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>49958</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>1016712</v>
+      </c>
+      <c r="E20" s="17">
+        <v>1463288</v>
+      </c>
+      <c r="F20" s="17">
+        <v>703493</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1229168</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1710338</v>
+      </c>
+      <c r="I20" s="17">
         <v>833223</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>895507</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>1115538</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>1477458</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>969384</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-71642</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-262957</v>
+      </c>
+      <c r="F21" s="13">
+        <v>189738</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-210282</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-278510</v>
+      </c>
+      <c r="I21" s="13">
         <v>-111865</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>24572</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>-104270</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>-283791</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>-210098</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>945070</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1200331</v>
+      </c>
+      <c r="F22" s="17">
+        <v>893231</v>
+      </c>
+      <c r="G22" s="17">
+        <v>1018886</v>
+      </c>
+      <c r="H22" s="17">
+        <v>1431828</v>
+      </c>
+      <c r="I22" s="17">
         <v>721358</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>920079</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>1011268</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>1193667</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>759286</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -992,52 +1274,97 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>945070</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1200331</v>
+      </c>
+      <c r="F24" s="17">
+        <v>893231</v>
+      </c>
+      <c r="G24" s="17">
+        <v>1018886</v>
+      </c>
+      <c r="H24" s="17">
+        <v>1431828</v>
+      </c>
+      <c r="I24" s="17">
         <v>721358</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>920079</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>1011268</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>1193667</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>759286</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>1322</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1679</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1249</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1425</v>
+      </c>
+      <c r="H25" s="13">
+        <v>2003</v>
+      </c>
+      <c r="I25" s="13">
         <v>1009</v>
       </c>
-      <c r="E25" s="13">
+      <c r="J25" s="13">
         <v>1287</v>
       </c>
-      <c r="F25" s="13">
+      <c r="K25" s="13">
         <v>1414</v>
       </c>
-      <c r="G25" s="13">
+      <c r="L25" s="13">
         <v>1669</v>
       </c>
-      <c r="H25" s="13">
+      <c r="M25" s="13">
         <v>1062</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1055,29 +1382,59 @@
       <c r="H26" s="11">
         <v>715000</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="11">
+        <v>715000</v>
+      </c>
+      <c r="J26" s="11">
+        <v>715000</v>
+      </c>
+      <c r="K26" s="11">
+        <v>715000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>715000</v>
+      </c>
+      <c r="M26" s="11">
+        <v>715000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>1322</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1679</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1249</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1425</v>
+      </c>
+      <c r="H27" s="13">
+        <v>2003</v>
+      </c>
+      <c r="I27" s="13">
         <v>1009</v>
       </c>
-      <c r="E27" s="13">
+      <c r="J27" s="13">
         <v>1287</v>
       </c>
-      <c r="F27" s="13">
+      <c r="K27" s="13">
         <v>1414</v>
       </c>
-      <c r="G27" s="13">
+      <c r="L27" s="13">
         <v>1669</v>
       </c>
-      <c r="H27" s="13">
+      <c r="M27" s="13">
         <v>1062</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1085,6 +1442,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/darou/detmad/income/quarterly/rial.xlsx
+++ b/database/industries/darou/detmad/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\detmad\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\detmad\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C68C89B-5AB0-4169-BE23-A029453379A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D1E57E-93B5-41CA-8190-D28AA528AD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-09-01 (4)</t>
-  </si>
-  <si>
     <t>1400-11-16 (4)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-11-01 (4)</t>
   </si>
   <si>
-    <t>1401-11-01 (7)</t>
+    <t>1402-02-28 (8)</t>
   </si>
   <si>
     <t>1401-04-30</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-11-01 (2)</t>
+  </si>
+  <si>
+    <t>1402-02-28</t>
   </si>
   <si>
     <t>فروش</t>
@@ -619,18 +619,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,7 +645,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +661,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +677,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +691,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,7 +707,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +723,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,7 +737,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -808,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,151 +823,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>2006503</v>
+        <v>2609518</v>
       </c>
       <c r="E11" s="13">
-        <v>2609518</v>
+        <v>1441386</v>
       </c>
       <c r="F11" s="13">
-        <v>1441386</v>
+        <v>2361164</v>
       </c>
       <c r="G11" s="13">
-        <v>2361164</v>
+        <v>2859006</v>
       </c>
       <c r="H11" s="13">
-        <v>2859006</v>
+        <v>1980421</v>
       </c>
       <c r="I11" s="13">
-        <v>1980421</v>
+        <v>2366335</v>
       </c>
       <c r="J11" s="13">
-        <v>2366335</v>
+        <v>2500879</v>
       </c>
       <c r="K11" s="13">
-        <v>2500879</v>
+        <v>3446475</v>
       </c>
       <c r="L11" s="13">
-        <v>3446475</v>
+        <v>2571565</v>
       </c>
       <c r="M11" s="13">
-        <v>2571565</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4565621</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-936586</v>
+        <v>-1021110</v>
       </c>
       <c r="E12" s="11">
-        <v>-1021110</v>
+        <v>-763508</v>
       </c>
       <c r="F12" s="11">
-        <v>-763508</v>
+        <v>-1027963</v>
       </c>
       <c r="G12" s="11">
-        <v>-1027963</v>
+        <v>-1084750</v>
       </c>
       <c r="H12" s="11">
-        <v>-1084750</v>
+        <v>-1039609</v>
       </c>
       <c r="I12" s="11">
-        <v>-1039609</v>
+        <v>-1257046</v>
       </c>
       <c r="J12" s="11">
-        <v>-1257046</v>
+        <v>-1173156</v>
       </c>
       <c r="K12" s="11">
-        <v>-1173156</v>
+        <v>-1812814</v>
       </c>
       <c r="L12" s="11">
-        <v>-1812814</v>
+        <v>-1350950</v>
       </c>
       <c r="M12" s="11">
-        <v>-1350950</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-2631918</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>1069917</v>
+        <v>1588408</v>
       </c>
       <c r="E13" s="15">
-        <v>1588408</v>
+        <v>677878</v>
       </c>
       <c r="F13" s="15">
-        <v>677878</v>
+        <v>1333201</v>
       </c>
       <c r="G13" s="15">
-        <v>1333201</v>
+        <v>1774256</v>
       </c>
       <c r="H13" s="15">
-        <v>1774256</v>
+        <v>940812</v>
       </c>
       <c r="I13" s="15">
-        <v>940812</v>
+        <v>1109289</v>
       </c>
       <c r="J13" s="15">
-        <v>1109289</v>
+        <v>1327723</v>
       </c>
       <c r="K13" s="15">
-        <v>1327723</v>
+        <v>1633661</v>
       </c>
       <c r="L13" s="15">
-        <v>1633661</v>
+        <v>1220615</v>
       </c>
       <c r="M13" s="15">
-        <v>1220615</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1933703</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-108852</v>
+        <v>-65973</v>
       </c>
       <c r="E14" s="11">
-        <v>-65973</v>
+        <v>-109312</v>
       </c>
       <c r="F14" s="11">
-        <v>-109312</v>
+        <v>-105227</v>
       </c>
       <c r="G14" s="11">
-        <v>-105227</v>
+        <v>-112573</v>
       </c>
       <c r="H14" s="11">
-        <v>-112573</v>
+        <v>-100987</v>
       </c>
       <c r="I14" s="11">
-        <v>-100987</v>
+        <v>-137449</v>
       </c>
       <c r="J14" s="11">
-        <v>-137449</v>
+        <v>-125702</v>
       </c>
       <c r="K14" s="11">
-        <v>-125702</v>
+        <v>-96458</v>
       </c>
       <c r="L14" s="11">
-        <v>-96458</v>
+        <v>-195361</v>
       </c>
       <c r="M14" s="11">
-        <v>-195361</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-178886</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1002,259 +1003,259 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>76509</v>
+        <v>-48662</v>
       </c>
       <c r="E16" s="11">
-        <v>-48662</v>
+        <v>100337</v>
       </c>
       <c r="F16" s="11">
-        <v>100337</v>
+        <v>11227</v>
       </c>
       <c r="G16" s="11">
-        <v>11227</v>
+        <v>54001</v>
       </c>
       <c r="H16" s="11">
-        <v>54001</v>
+        <v>41800</v>
       </c>
       <c r="I16" s="11">
-        <v>41800</v>
+        <v>-74787</v>
       </c>
       <c r="J16" s="11">
-        <v>-74787</v>
+        <v>1290</v>
       </c>
       <c r="K16" s="11">
-        <v>1290</v>
+        <v>38797</v>
       </c>
       <c r="L16" s="11">
-        <v>38797</v>
+        <v>17922</v>
       </c>
       <c r="M16" s="11">
-        <v>17922</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>270851</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>1037574</v>
+        <v>1473773</v>
       </c>
       <c r="E17" s="15">
-        <v>1473773</v>
+        <v>668903</v>
       </c>
       <c r="F17" s="15">
-        <v>668903</v>
+        <v>1239201</v>
       </c>
       <c r="G17" s="15">
-        <v>1239201</v>
+        <v>1715684</v>
       </c>
       <c r="H17" s="15">
-        <v>1715684</v>
+        <v>881625</v>
       </c>
       <c r="I17" s="15">
-        <v>881625</v>
+        <v>897053</v>
       </c>
       <c r="J17" s="15">
-        <v>897053</v>
+        <v>1203311</v>
       </c>
       <c r="K17" s="15">
-        <v>1203311</v>
+        <v>1576000</v>
       </c>
       <c r="L17" s="15">
-        <v>1576000</v>
+        <v>1043176</v>
       </c>
       <c r="M17" s="15">
-        <v>1043176</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2025668</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-21289</v>
+        <v>-15048</v>
       </c>
       <c r="E18" s="11">
-        <v>-15048</v>
+        <v>-11126</v>
       </c>
       <c r="F18" s="11">
-        <v>-11126</v>
+        <v>-18263</v>
       </c>
       <c r="G18" s="11">
-        <v>-18263</v>
+        <v>-22119</v>
       </c>
       <c r="H18" s="11">
-        <v>-22119</v>
+        <v>-36074</v>
       </c>
       <c r="I18" s="11">
-        <v>-36074</v>
+        <v>-69950</v>
       </c>
       <c r="J18" s="11">
-        <v>-69950</v>
+        <v>-87980</v>
       </c>
       <c r="K18" s="11">
-        <v>-87980</v>
+        <v>-110426</v>
       </c>
       <c r="L18" s="11">
-        <v>-110426</v>
+        <v>-123750</v>
       </c>
       <c r="M18" s="11">
-        <v>-123750</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-139315</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>427</v>
+        <v>4563</v>
       </c>
       <c r="E19" s="13">
-        <v>4563</v>
+        <v>45716</v>
       </c>
       <c r="F19" s="13">
-        <v>45716</v>
+        <v>8230</v>
       </c>
       <c r="G19" s="13">
-        <v>8230</v>
+        <v>16773</v>
       </c>
       <c r="H19" s="13">
-        <v>16773</v>
+        <v>-12328</v>
       </c>
       <c r="I19" s="13">
-        <v>-12328</v>
+        <v>68404</v>
       </c>
       <c r="J19" s="13">
-        <v>68404</v>
+        <v>207</v>
       </c>
       <c r="K19" s="13">
-        <v>207</v>
+        <v>11884</v>
       </c>
       <c r="L19" s="13">
-        <v>11884</v>
+        <v>49958</v>
       </c>
       <c r="M19" s="13">
-        <v>49958</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-13850</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>1016712</v>
+        <v>1463288</v>
       </c>
       <c r="E20" s="17">
-        <v>1463288</v>
+        <v>703493</v>
       </c>
       <c r="F20" s="17">
-        <v>703493</v>
+        <v>1229168</v>
       </c>
       <c r="G20" s="17">
-        <v>1229168</v>
+        <v>1710338</v>
       </c>
       <c r="H20" s="17">
-        <v>1710338</v>
+        <v>833223</v>
       </c>
       <c r="I20" s="17">
-        <v>833223</v>
+        <v>895507</v>
       </c>
       <c r="J20" s="17">
-        <v>895507</v>
+        <v>1115538</v>
       </c>
       <c r="K20" s="17">
-        <v>1115538</v>
+        <v>1477458</v>
       </c>
       <c r="L20" s="17">
-        <v>1477458</v>
+        <v>969384</v>
       </c>
       <c r="M20" s="17">
-        <v>969384</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1872503</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-71642</v>
+        <v>-262957</v>
       </c>
       <c r="E21" s="13">
-        <v>-262957</v>
+        <v>189738</v>
       </c>
       <c r="F21" s="13">
-        <v>189738</v>
+        <v>-210282</v>
       </c>
       <c r="G21" s="13">
-        <v>-210282</v>
+        <v>-278510</v>
       </c>
       <c r="H21" s="13">
-        <v>-278510</v>
+        <v>-111865</v>
       </c>
       <c r="I21" s="13">
-        <v>-111865</v>
+        <v>24572</v>
       </c>
       <c r="J21" s="13">
-        <v>24572</v>
+        <v>-104270</v>
       </c>
       <c r="K21" s="13">
-        <v>-104270</v>
+        <v>-283791</v>
       </c>
       <c r="L21" s="13">
-        <v>-283791</v>
+        <v>-210098</v>
       </c>
       <c r="M21" s="13">
-        <v>-210098</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-158951</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>945070</v>
+        <v>1200331</v>
       </c>
       <c r="E22" s="17">
-        <v>1200331</v>
+        <v>893231</v>
       </c>
       <c r="F22" s="17">
-        <v>893231</v>
+        <v>1018886</v>
       </c>
       <c r="G22" s="17">
-        <v>1018886</v>
+        <v>1431828</v>
       </c>
       <c r="H22" s="17">
-        <v>1431828</v>
+        <v>721358</v>
       </c>
       <c r="I22" s="17">
-        <v>721358</v>
+        <v>920079</v>
       </c>
       <c r="J22" s="17">
-        <v>920079</v>
+        <v>1011268</v>
       </c>
       <c r="K22" s="17">
-        <v>1011268</v>
+        <v>1193667</v>
       </c>
       <c r="L22" s="17">
-        <v>1193667</v>
+        <v>759286</v>
       </c>
       <c r="M22" s="17">
-        <v>759286</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1713552</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1290,79 +1291,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>945070</v>
+        <v>1200331</v>
       </c>
       <c r="E24" s="17">
-        <v>1200331</v>
+        <v>893231</v>
       </c>
       <c r="F24" s="17">
-        <v>893231</v>
+        <v>1018886</v>
       </c>
       <c r="G24" s="17">
-        <v>1018886</v>
+        <v>1431828</v>
       </c>
       <c r="H24" s="17">
-        <v>1431828</v>
+        <v>721358</v>
       </c>
       <c r="I24" s="17">
-        <v>721358</v>
+        <v>920079</v>
       </c>
       <c r="J24" s="17">
-        <v>920079</v>
+        <v>1011268</v>
       </c>
       <c r="K24" s="17">
-        <v>1011268</v>
+        <v>1193667</v>
       </c>
       <c r="L24" s="17">
-        <v>1193667</v>
+        <v>759286</v>
       </c>
       <c r="M24" s="17">
-        <v>759286</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1713552</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>1322</v>
+        <v>1679</v>
       </c>
       <c r="E25" s="13">
-        <v>1679</v>
+        <v>1249</v>
       </c>
       <c r="F25" s="13">
-        <v>1249</v>
+        <v>1425</v>
       </c>
       <c r="G25" s="13">
-        <v>1425</v>
+        <v>2003</v>
       </c>
       <c r="H25" s="13">
-        <v>2003</v>
+        <v>1009</v>
       </c>
       <c r="I25" s="13">
-        <v>1009</v>
+        <v>1287</v>
       </c>
       <c r="J25" s="13">
-        <v>1287</v>
+        <v>1414</v>
       </c>
       <c r="K25" s="13">
-        <v>1414</v>
+        <v>1669</v>
       </c>
       <c r="L25" s="13">
-        <v>1669</v>
+        <v>1062</v>
       </c>
       <c r="M25" s="13">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1398,43 +1399,43 @@
         <v>715000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>1322</v>
+        <v>1679</v>
       </c>
       <c r="E27" s="13">
-        <v>1679</v>
+        <v>1249</v>
       </c>
       <c r="F27" s="13">
-        <v>1249</v>
+        <v>1425</v>
       </c>
       <c r="G27" s="13">
-        <v>1425</v>
+        <v>2003</v>
       </c>
       <c r="H27" s="13">
-        <v>2003</v>
+        <v>1009</v>
       </c>
       <c r="I27" s="13">
-        <v>1009</v>
+        <v>1287</v>
       </c>
       <c r="J27" s="13">
-        <v>1287</v>
+        <v>1414</v>
       </c>
       <c r="K27" s="13">
-        <v>1414</v>
+        <v>1669</v>
       </c>
       <c r="L27" s="13">
-        <v>1669</v>
+        <v>1062</v>
       </c>
       <c r="M27" s="13">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/darou/detmad/income/quarterly/rial.xlsx
+++ b/database/industries/darou/detmad/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\detmad\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\darou\detmad\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D1E57E-93B5-41CA-8190-D28AA528AD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688EB09D-C061-451D-A785-D77EFE8521FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>دتماد-تولیدمواداولیه‌داروپخش‌</t>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,39 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-10-30 (2)</t>
+  </si>
+  <si>
+    <t>1399-03-13 (8)</t>
+  </si>
+  <si>
+    <t>1399-04-30 (2)</t>
+  </si>
+  <si>
+    <t>1399-08-29 (4)</t>
+  </si>
+  <si>
+    <t>1399-11-07 (3)</t>
+  </si>
+  <si>
+    <t>1400-03-11 (10)</t>
+  </si>
+  <si>
+    <t>1400-04-29 (2)</t>
+  </si>
+  <si>
+    <t>1400-09-01 (4)</t>
+  </si>
+  <si>
     <t>1400-11-16 (4)</t>
   </si>
   <si>
@@ -85,19 +139,25 @@
     <t>1401-11-01 (4)</t>
   </si>
   <si>
-    <t>1402-02-28 (8)</t>
-  </si>
-  <si>
-    <t>1401-04-30</t>
-  </si>
-  <si>
-    <t>1401-08-30 (2)</t>
+    <t>1402-03-07 (9)</t>
+  </si>
+  <si>
+    <t>1402-04-29 (2)</t>
+  </si>
+  <si>
+    <t>1402-08-23 (5)</t>
   </si>
   <si>
     <t>1401-11-01 (2)</t>
   </si>
   <si>
-    <t>1402-02-28</t>
+    <t>1402-08-23 (6)</t>
+  </si>
+  <si>
+    <t>1402-04-29</t>
+  </si>
+  <si>
+    <t>1402-08-23 (3)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -121,13 +181,13 @@
     <t>سود (زیان) عملیاتی</t>
   </si>
   <si>
-    <t>هزینه های مالی</t>
-  </si>
-  <si>
-    <t>خالص سایر درامدها و هزینه های غیرعملیاتی</t>
-  </si>
-  <si>
-    <t>سود (زیان) خالص عملیات در حال تداوم قبل از مالیات</t>
+    <t>هزینه‌های مالی</t>
+  </si>
+  <si>
+    <t>خالص سایر درآمدها و هزینه‌های غیرعملیاتی</t>
+  </si>
+  <si>
+    <t>سود (زیان) عملیات در حال تداوم قبل از مالیات</t>
   </si>
   <si>
     <t>مالیات</t>
@@ -615,13 +675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
@@ -629,9 +689,14 @@
     <col min="9" max="9" width="31" customWidth="1"/>
     <col min="10" max="12" width="29" customWidth="1"/>
     <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,8 +709,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,8 +735,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,8 +761,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,8 +785,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,8 +811,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,8 +837,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,8 +861,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,44 +907,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,154 +1017,284 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>776919</v>
+      </c>
+      <c r="E11" s="13">
+        <v>462591</v>
+      </c>
+      <c r="F11" s="13">
+        <v>661421</v>
+      </c>
+      <c r="G11" s="13">
+        <v>921362</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1035538</v>
+      </c>
+      <c r="I11" s="13">
+        <v>936518</v>
+      </c>
+      <c r="J11" s="13">
+        <v>1233054</v>
+      </c>
+      <c r="K11" s="13">
+        <v>2006503</v>
+      </c>
+      <c r="L11" s="13">
         <v>2609518</v>
       </c>
-      <c r="E11" s="13">
+      <c r="M11" s="13">
         <v>1441386</v>
       </c>
-      <c r="F11" s="13">
+      <c r="N11" s="13">
         <v>2361164</v>
       </c>
-      <c r="G11" s="13">
+      <c r="O11" s="13">
         <v>2859006</v>
       </c>
-      <c r="H11" s="13">
+      <c r="P11" s="13">
         <v>1980421</v>
       </c>
-      <c r="I11" s="13">
+      <c r="Q11" s="13">
         <v>2366335</v>
       </c>
-      <c r="J11" s="13">
+      <c r="R11" s="13">
         <v>2500879</v>
       </c>
-      <c r="K11" s="13">
+      <c r="S11" s="13">
         <v>3446475</v>
       </c>
-      <c r="L11" s="13">
+      <c r="T11" s="13">
         <v>2571565</v>
       </c>
-      <c r="M11" s="13">
+      <c r="U11" s="13">
         <v>4565621</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V11" s="13">
+        <v>3737216</v>
+      </c>
+      <c r="W11" s="13">
+        <v>4492531</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-470042</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-201738</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-385605</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-514780</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-580553</v>
+      </c>
+      <c r="I12" s="11">
+        <v>-493808</v>
+      </c>
+      <c r="J12" s="11">
+        <v>-516409</v>
+      </c>
+      <c r="K12" s="11">
+        <v>-936586</v>
+      </c>
+      <c r="L12" s="11">
         <v>-1021110</v>
       </c>
-      <c r="E12" s="11">
+      <c r="M12" s="11">
         <v>-763508</v>
       </c>
-      <c r="F12" s="11">
+      <c r="N12" s="11">
         <v>-1027963</v>
       </c>
-      <c r="G12" s="11">
+      <c r="O12" s="11">
         <v>-1084750</v>
       </c>
-      <c r="H12" s="11">
+      <c r="P12" s="11">
         <v>-1039609</v>
       </c>
-      <c r="I12" s="11">
+      <c r="Q12" s="11">
         <v>-1257046</v>
       </c>
-      <c r="J12" s="11">
+      <c r="R12" s="11">
         <v>-1173156</v>
       </c>
-      <c r="K12" s="11">
+      <c r="S12" s="11">
         <v>-1812814</v>
       </c>
-      <c r="L12" s="11">
+      <c r="T12" s="11">
         <v>-1350950</v>
       </c>
-      <c r="M12" s="11">
-        <v>-2631918</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U12" s="11">
+        <v>-2891502</v>
+      </c>
+      <c r="V12" s="11">
+        <v>-2016388</v>
+      </c>
+      <c r="W12" s="11">
+        <v>-2330171</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>306877</v>
+      </c>
+      <c r="E13" s="15">
+        <v>260853</v>
+      </c>
+      <c r="F13" s="15">
+        <v>275816</v>
+      </c>
+      <c r="G13" s="15">
+        <v>406582</v>
+      </c>
+      <c r="H13" s="15">
+        <v>454985</v>
+      </c>
+      <c r="I13" s="15">
+        <v>442710</v>
+      </c>
+      <c r="J13" s="15">
+        <v>716645</v>
+      </c>
+      <c r="K13" s="15">
+        <v>1069917</v>
+      </c>
+      <c r="L13" s="15">
         <v>1588408</v>
       </c>
-      <c r="E13" s="15">
+      <c r="M13" s="15">
         <v>677878</v>
       </c>
-      <c r="F13" s="15">
+      <c r="N13" s="15">
         <v>1333201</v>
       </c>
-      <c r="G13" s="15">
+      <c r="O13" s="15">
         <v>1774256</v>
       </c>
-      <c r="H13" s="15">
+      <c r="P13" s="15">
         <v>940812</v>
       </c>
-      <c r="I13" s="15">
+      <c r="Q13" s="15">
         <v>1109289</v>
       </c>
-      <c r="J13" s="15">
+      <c r="R13" s="15">
         <v>1327723</v>
       </c>
-      <c r="K13" s="15">
+      <c r="S13" s="15">
         <v>1633661</v>
       </c>
-      <c r="L13" s="15">
+      <c r="T13" s="15">
         <v>1220615</v>
       </c>
-      <c r="M13" s="15">
-        <v>1933703</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U13" s="15">
+        <v>1674119</v>
+      </c>
+      <c r="V13" s="15">
+        <v>1720828</v>
+      </c>
+      <c r="W13" s="15">
+        <v>2162360</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-53099</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-51754</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-42342</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-50838</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-57264</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-77987</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-50035</v>
+      </c>
+      <c r="K14" s="11">
+        <v>-108852</v>
+      </c>
+      <c r="L14" s="11">
         <v>-65973</v>
       </c>
-      <c r="E14" s="11">
+      <c r="M14" s="11">
         <v>-109312</v>
       </c>
-      <c r="F14" s="11">
+      <c r="N14" s="11">
         <v>-105227</v>
       </c>
-      <c r="G14" s="11">
+      <c r="O14" s="11">
         <v>-112573</v>
       </c>
-      <c r="H14" s="11">
+      <c r="P14" s="11">
         <v>-100987</v>
       </c>
-      <c r="I14" s="11">
+      <c r="Q14" s="11">
         <v>-137449</v>
       </c>
-      <c r="J14" s="11">
+      <c r="R14" s="11">
         <v>-125702</v>
       </c>
-      <c r="K14" s="11">
+      <c r="S14" s="11">
         <v>-96458</v>
       </c>
-      <c r="L14" s="11">
+      <c r="T14" s="11">
         <v>-195361</v>
       </c>
-      <c r="M14" s="11">
-        <v>-178886</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U14" s="11">
+        <v>-130888</v>
+      </c>
+      <c r="V14" s="11">
+        <v>-205007</v>
+      </c>
+      <c r="W14" s="11">
+        <v>-228790</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -1002,262 +1327,502 @@
       <c r="M15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>-4533</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-9965</v>
+      </c>
+      <c r="F16" s="11">
+        <v>48998</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-17288</v>
+      </c>
+      <c r="H16" s="11">
+        <v>62062</v>
+      </c>
+      <c r="I16" s="11">
+        <v>41379</v>
+      </c>
+      <c r="J16" s="11">
+        <v>6700</v>
+      </c>
+      <c r="K16" s="11">
+        <v>76509</v>
+      </c>
+      <c r="L16" s="11">
         <v>-48662</v>
       </c>
-      <c r="E16" s="11">
+      <c r="M16" s="11">
         <v>100337</v>
       </c>
-      <c r="F16" s="11">
+      <c r="N16" s="11">
         <v>11227</v>
       </c>
-      <c r="G16" s="11">
+      <c r="O16" s="11">
         <v>54001</v>
       </c>
-      <c r="H16" s="11">
+      <c r="P16" s="11">
         <v>41800</v>
       </c>
-      <c r="I16" s="11">
-        <v>-74787</v>
-      </c>
-      <c r="J16" s="11">
+      <c r="Q16" s="11">
+        <v>-43736</v>
+      </c>
+      <c r="R16" s="11">
         <v>1290</v>
       </c>
-      <c r="K16" s="11">
+      <c r="S16" s="11">
         <v>38797</v>
       </c>
-      <c r="L16" s="11">
+      <c r="T16" s="11">
         <v>17922</v>
       </c>
-      <c r="M16" s="11">
+      <c r="U16" s="11">
         <v>270851</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V16" s="11">
+        <v>30474</v>
+      </c>
+      <c r="W16" s="11">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>249245</v>
+      </c>
+      <c r="E17" s="15">
+        <v>199134</v>
+      </c>
+      <c r="F17" s="15">
+        <v>282472</v>
+      </c>
+      <c r="G17" s="15">
+        <v>338456</v>
+      </c>
+      <c r="H17" s="15">
+        <v>459783</v>
+      </c>
+      <c r="I17" s="15">
+        <v>406102</v>
+      </c>
+      <c r="J17" s="15">
+        <v>673310</v>
+      </c>
+      <c r="K17" s="15">
+        <v>1037574</v>
+      </c>
+      <c r="L17" s="15">
         <v>1473773</v>
       </c>
-      <c r="E17" s="15">
+      <c r="M17" s="15">
         <v>668903</v>
       </c>
-      <c r="F17" s="15">
+      <c r="N17" s="15">
         <v>1239201</v>
       </c>
-      <c r="G17" s="15">
+      <c r="O17" s="15">
         <v>1715684</v>
       </c>
-      <c r="H17" s="15">
+      <c r="P17" s="15">
         <v>881625</v>
       </c>
-      <c r="I17" s="15">
-        <v>897053</v>
-      </c>
-      <c r="J17" s="15">
+      <c r="Q17" s="15">
+        <v>928104</v>
+      </c>
+      <c r="R17" s="15">
         <v>1203311</v>
       </c>
-      <c r="K17" s="15">
+      <c r="S17" s="15">
         <v>1576000</v>
       </c>
-      <c r="L17" s="15">
+      <c r="T17" s="15">
         <v>1043176</v>
       </c>
-      <c r="M17" s="15">
-        <v>2025668</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U17" s="15">
+        <v>1814082</v>
+      </c>
+      <c r="V17" s="15">
+        <v>1546295</v>
+      </c>
+      <c r="W17" s="15">
+        <v>1978134</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-40347</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-41086</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-55917</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-49194</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-39470</v>
+      </c>
+      <c r="I18" s="11">
+        <v>-35090</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-23239</v>
+      </c>
+      <c r="K18" s="11">
+        <v>-21289</v>
+      </c>
+      <c r="L18" s="11">
         <v>-15048</v>
       </c>
-      <c r="E18" s="11">
+      <c r="M18" s="11">
         <v>-11126</v>
       </c>
-      <c r="F18" s="11">
+      <c r="N18" s="11">
         <v>-18263</v>
       </c>
-      <c r="G18" s="11">
+      <c r="O18" s="11">
         <v>-22119</v>
       </c>
-      <c r="H18" s="11">
+      <c r="P18" s="11">
         <v>-36074</v>
       </c>
-      <c r="I18" s="11">
+      <c r="Q18" s="11">
         <v>-69950</v>
       </c>
-      <c r="J18" s="11">
+      <c r="R18" s="11">
         <v>-87980</v>
       </c>
-      <c r="K18" s="11">
+      <c r="S18" s="11">
         <v>-110426</v>
       </c>
-      <c r="L18" s="11">
+      <c r="T18" s="11">
         <v>-123750</v>
       </c>
-      <c r="M18" s="11">
+      <c r="U18" s="11">
         <v>-139315</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V18" s="11">
+        <v>-107575</v>
+      </c>
+      <c r="W18" s="11">
+        <v>-208258</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>598</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1767</v>
+      </c>
+      <c r="F19" s="13">
+        <v>351</v>
+      </c>
+      <c r="G19" s="13">
+        <v>-2354</v>
+      </c>
+      <c r="H19" s="13">
+        <v>-111935</v>
+      </c>
+      <c r="I19" s="13">
+        <v>47357</v>
+      </c>
+      <c r="J19" s="13">
+        <v>1170</v>
+      </c>
+      <c r="K19" s="13">
+        <v>427</v>
+      </c>
+      <c r="L19" s="13">
         <v>4563</v>
       </c>
-      <c r="E19" s="13">
+      <c r="M19" s="13">
         <v>45716</v>
       </c>
-      <c r="F19" s="13">
+      <c r="N19" s="13">
         <v>8230</v>
       </c>
-      <c r="G19" s="13">
+      <c r="O19" s="13">
         <v>16773</v>
       </c>
-      <c r="H19" s="13">
+      <c r="P19" s="13">
         <v>-12328</v>
       </c>
-      <c r="I19" s="13">
-        <v>68404</v>
-      </c>
-      <c r="J19" s="13">
+      <c r="Q19" s="13">
+        <v>37353</v>
+      </c>
+      <c r="R19" s="13">
         <v>207</v>
       </c>
-      <c r="K19" s="13">
+      <c r="S19" s="13">
         <v>11884</v>
       </c>
-      <c r="L19" s="13">
+      <c r="T19" s="13">
         <v>49958</v>
       </c>
-      <c r="M19" s="13">
+      <c r="U19" s="13">
         <v>-13850</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V19" s="13">
+        <v>24310</v>
+      </c>
+      <c r="W19" s="13">
+        <v>-2206</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>209496</v>
+      </c>
+      <c r="E20" s="17">
+        <v>159815</v>
+      </c>
+      <c r="F20" s="17">
+        <v>226906</v>
+      </c>
+      <c r="G20" s="17">
+        <v>286908</v>
+      </c>
+      <c r="H20" s="17">
+        <v>308378</v>
+      </c>
+      <c r="I20" s="17">
+        <v>418369</v>
+      </c>
+      <c r="J20" s="17">
+        <v>651241</v>
+      </c>
+      <c r="K20" s="17">
+        <v>1016712</v>
+      </c>
+      <c r="L20" s="17">
         <v>1463288</v>
       </c>
-      <c r="E20" s="17">
+      <c r="M20" s="17">
         <v>703493</v>
       </c>
-      <c r="F20" s="17">
+      <c r="N20" s="17">
         <v>1229168</v>
       </c>
-      <c r="G20" s="17">
+      <c r="O20" s="17">
         <v>1710338</v>
       </c>
-      <c r="H20" s="17">
+      <c r="P20" s="17">
         <v>833223</v>
       </c>
-      <c r="I20" s="17">
+      <c r="Q20" s="17">
         <v>895507</v>
       </c>
-      <c r="J20" s="17">
+      <c r="R20" s="17">
         <v>1115538</v>
       </c>
-      <c r="K20" s="17">
+      <c r="S20" s="17">
         <v>1477458</v>
       </c>
-      <c r="L20" s="17">
+      <c r="T20" s="17">
         <v>969384</v>
       </c>
-      <c r="M20" s="17">
-        <v>1872503</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U20" s="17">
+        <v>1660917</v>
+      </c>
+      <c r="V20" s="17">
+        <v>1463030</v>
+      </c>
+      <c r="W20" s="17">
+        <v>1767670</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>25801</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-47032</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-22064</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-61858</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-30880</v>
+      </c>
+      <c r="I21" s="13">
+        <v>-5667</v>
+      </c>
+      <c r="J21" s="13">
+        <v>-96566</v>
+      </c>
+      <c r="K21" s="13">
+        <v>-71642</v>
+      </c>
+      <c r="L21" s="13">
         <v>-262957</v>
       </c>
-      <c r="E21" s="13">
+      <c r="M21" s="13">
         <v>189738</v>
       </c>
-      <c r="F21" s="13">
+      <c r="N21" s="13">
         <v>-210282</v>
       </c>
-      <c r="G21" s="13">
+      <c r="O21" s="13">
         <v>-278510</v>
       </c>
-      <c r="H21" s="13">
+      <c r="P21" s="13">
         <v>-111865</v>
       </c>
-      <c r="I21" s="13">
+      <c r="Q21" s="13">
         <v>24572</v>
       </c>
-      <c r="J21" s="13">
+      <c r="R21" s="13">
         <v>-104270</v>
       </c>
-      <c r="K21" s="13">
+      <c r="S21" s="13">
         <v>-283791</v>
       </c>
-      <c r="L21" s="13">
+      <c r="T21" s="13">
         <v>-210098</v>
       </c>
-      <c r="M21" s="13">
-        <v>-158951</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U21" s="13">
+        <v>44817</v>
+      </c>
+      <c r="V21" s="13">
+        <v>-173505</v>
+      </c>
+      <c r="W21" s="13">
+        <v>-432830</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>235297</v>
+      </c>
+      <c r="E22" s="17">
+        <v>112783</v>
+      </c>
+      <c r="F22" s="17">
+        <v>204842</v>
+      </c>
+      <c r="G22" s="17">
+        <v>225050</v>
+      </c>
+      <c r="H22" s="17">
+        <v>277498</v>
+      </c>
+      <c r="I22" s="17">
+        <v>412702</v>
+      </c>
+      <c r="J22" s="17">
+        <v>554675</v>
+      </c>
+      <c r="K22" s="17">
+        <v>945070</v>
+      </c>
+      <c r="L22" s="17">
         <v>1200331</v>
       </c>
-      <c r="E22" s="17">
+      <c r="M22" s="17">
         <v>893231</v>
       </c>
-      <c r="F22" s="17">
+      <c r="N22" s="17">
         <v>1018886</v>
       </c>
-      <c r="G22" s="17">
+      <c r="O22" s="17">
         <v>1431828</v>
       </c>
-      <c r="H22" s="17">
+      <c r="P22" s="17">
         <v>721358</v>
       </c>
-      <c r="I22" s="17">
+      <c r="Q22" s="17">
         <v>920079</v>
       </c>
-      <c r="J22" s="17">
+      <c r="R22" s="17">
         <v>1011268</v>
       </c>
-      <c r="K22" s="17">
+      <c r="S22" s="17">
         <v>1193667</v>
       </c>
-      <c r="L22" s="17">
+      <c r="T22" s="17">
         <v>759286</v>
       </c>
-      <c r="M22" s="17">
-        <v>1713552</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U22" s="17">
+        <v>1705734</v>
+      </c>
+      <c r="V22" s="17">
+        <v>1289525</v>
+      </c>
+      <c r="W22" s="17">
+        <v>1334840</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1290,101 +1855,191 @@
       <c r="M23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
+      <c r="S23" s="13">
+        <v>0</v>
+      </c>
+      <c r="T23" s="13">
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
+        <v>0</v>
+      </c>
+      <c r="W23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>235297</v>
+      </c>
+      <c r="E24" s="17">
+        <v>112783</v>
+      </c>
+      <c r="F24" s="17">
+        <v>204842</v>
+      </c>
+      <c r="G24" s="17">
+        <v>225050</v>
+      </c>
+      <c r="H24" s="17">
+        <v>277498</v>
+      </c>
+      <c r="I24" s="17">
+        <v>412702</v>
+      </c>
+      <c r="J24" s="17">
+        <v>554675</v>
+      </c>
+      <c r="K24" s="17">
+        <v>945070</v>
+      </c>
+      <c r="L24" s="17">
         <v>1200331</v>
       </c>
-      <c r="E24" s="17">
+      <c r="M24" s="17">
         <v>893231</v>
       </c>
-      <c r="F24" s="17">
+      <c r="N24" s="17">
         <v>1018886</v>
       </c>
-      <c r="G24" s="17">
+      <c r="O24" s="17">
         <v>1431828</v>
       </c>
-      <c r="H24" s="17">
+      <c r="P24" s="17">
         <v>721358</v>
       </c>
-      <c r="I24" s="17">
+      <c r="Q24" s="17">
         <v>920079</v>
       </c>
-      <c r="J24" s="17">
+      <c r="R24" s="17">
         <v>1011268</v>
       </c>
-      <c r="K24" s="17">
+      <c r="S24" s="17">
         <v>1193667</v>
       </c>
-      <c r="L24" s="17">
+      <c r="T24" s="17">
         <v>759286</v>
       </c>
-      <c r="M24" s="17">
-        <v>1713552</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U24" s="17">
+        <v>1705734</v>
+      </c>
+      <c r="V24" s="17">
+        <v>1289525</v>
+      </c>
+      <c r="W24" s="17">
+        <v>1334840</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>471</v>
+      </c>
+      <c r="E25" s="13">
+        <v>226</v>
+      </c>
+      <c r="F25" s="13">
+        <v>410</v>
+      </c>
+      <c r="G25" s="13">
+        <v>450</v>
+      </c>
+      <c r="H25" s="13">
+        <v>555</v>
+      </c>
+      <c r="I25" s="13">
+        <v>825</v>
+      </c>
+      <c r="J25" s="13">
+        <v>776</v>
+      </c>
+      <c r="K25" s="13">
+        <v>1322</v>
+      </c>
+      <c r="L25" s="13">
         <v>1679</v>
       </c>
-      <c r="E25" s="13">
+      <c r="M25" s="13">
         <v>1249</v>
       </c>
-      <c r="F25" s="13">
+      <c r="N25" s="13">
         <v>1425</v>
       </c>
-      <c r="G25" s="13">
+      <c r="O25" s="13">
         <v>2003</v>
       </c>
-      <c r="H25" s="13">
+      <c r="P25" s="13">
         <v>1009</v>
       </c>
-      <c r="I25" s="13">
+      <c r="Q25" s="13">
         <v>1287</v>
       </c>
-      <c r="J25" s="13">
+      <c r="R25" s="13">
         <v>1414</v>
       </c>
-      <c r="K25" s="13">
+      <c r="S25" s="13">
         <v>1669</v>
       </c>
-      <c r="L25" s="13">
+      <c r="T25" s="13">
         <v>1062</v>
       </c>
-      <c r="M25" s="13">
-        <v>2397</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U25" s="13">
+        <v>2386</v>
+      </c>
+      <c r="V25" s="13">
+        <v>1804</v>
+      </c>
+      <c r="W25" s="13">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>715000</v>
+        <v>500000</v>
       </c>
       <c r="E26" s="11">
-        <v>715000</v>
+        <v>500000</v>
       </c>
       <c r="F26" s="11">
-        <v>715000</v>
+        <v>500000</v>
       </c>
       <c r="G26" s="11">
-        <v>715000</v>
+        <v>500000</v>
       </c>
       <c r="H26" s="11">
-        <v>715000</v>
+        <v>500000</v>
       </c>
       <c r="I26" s="11">
-        <v>715000</v>
+        <v>500000</v>
       </c>
       <c r="J26" s="11">
         <v>715000</v>
@@ -1398,44 +2053,104 @@
       <c r="M26" s="11">
         <v>715000</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N26" s="11">
+        <v>715000</v>
+      </c>
+      <c r="O26" s="11">
+        <v>715000</v>
+      </c>
+      <c r="P26" s="11">
+        <v>715000</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>715000</v>
+      </c>
+      <c r="R26" s="11">
+        <v>715000</v>
+      </c>
+      <c r="S26" s="11">
+        <v>715000</v>
+      </c>
+      <c r="T26" s="11">
+        <v>715000</v>
+      </c>
+      <c r="U26" s="11">
+        <v>715000</v>
+      </c>
+      <c r="V26" s="11">
+        <v>715000</v>
+      </c>
+      <c r="W26" s="11">
+        <v>715000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>329</v>
+      </c>
+      <c r="E27" s="13">
+        <v>158</v>
+      </c>
+      <c r="F27" s="13">
+        <v>286</v>
+      </c>
+      <c r="G27" s="13">
+        <v>315</v>
+      </c>
+      <c r="H27" s="13">
+        <v>388</v>
+      </c>
+      <c r="I27" s="13">
+        <v>577</v>
+      </c>
+      <c r="J27" s="13">
+        <v>776</v>
+      </c>
+      <c r="K27" s="13">
+        <v>1322</v>
+      </c>
+      <c r="L27" s="13">
         <v>1679</v>
       </c>
-      <c r="E27" s="13">
+      <c r="M27" s="13">
         <v>1249</v>
       </c>
-      <c r="F27" s="13">
+      <c r="N27" s="13">
         <v>1425</v>
       </c>
-      <c r="G27" s="13">
+      <c r="O27" s="13">
         <v>2003</v>
       </c>
-      <c r="H27" s="13">
+      <c r="P27" s="13">
         <v>1009</v>
       </c>
-      <c r="I27" s="13">
+      <c r="Q27" s="13">
         <v>1287</v>
       </c>
-      <c r="J27" s="13">
+      <c r="R27" s="13">
         <v>1414</v>
       </c>
-      <c r="K27" s="13">
+      <c r="S27" s="13">
         <v>1669</v>
       </c>
-      <c r="L27" s="13">
+      <c r="T27" s="13">
         <v>1062</v>
       </c>
-      <c r="M27" s="13">
-        <v>2397</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U27" s="13">
+        <v>2386</v>
+      </c>
+      <c r="V27" s="13">
+        <v>1804</v>
+      </c>
+      <c r="W27" s="13">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1448,6 +2163,16 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
